--- a/cg/沟通及工作日志表.xlsx
+++ b/cg/沟通及工作日志表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46035\Desktop\zhonghua-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46035\Desktop\zhonghua-backend\cg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E424A937-4686-4245-84F7-00041A5B64BB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBECA8E8-690B-4D27-A09A-44D894F225A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{7A4C70EC-1B96-4681-BE83-B07FC6131489}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,20 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、希望DOM能悬浮透明展示在Canvas的上方
-2、明天绘制sp表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,6 +57,105 @@
   </si>
   <si>
     <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、绘制cg数据样式
+2、希望DOM能悬浮透明展示在Canvas的上方
+3、明天绘制sp表单
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制cg数据样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据展示的格式有个体差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、介绍前端UI框架Bootkit
+2、前后端交互采用面向接口的形式
+3、采用jCanvas绘制Topo图
+4、利用Bootkit框架搭建两套不同结构的UI Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搭建基于Bootkit的两套不同结构的UI Demo
+2、解决侧边栏与iframe双滚动条的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基于iframe的Bootkit UI  Demo
+2、基于CSS3的Bootkit UI Deom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成Bootkit Demo的具体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe产生了一些布局样式上的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现了根据数据异步驱动加载菜单栏的效果
+2、完成了项目初期Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootkit侧边栏样式被遮挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jCanvas绘制一个服务器的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、利用jCanvas绘制一个服务器的Demo
+2、将Demo中服务器元素进行有效封装
+3、Demo展示采用ImageViewer插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五一假期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供了假数据以及格式，需要绘制完整的Topo Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jCanvas绘制一个完整Topo图的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程结构优化以及Canvas元素可复用性探讨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +177,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -115,18 +213,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,32 +235,32 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,12 +276,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{675BD21A-41CE-4AF8-9BB0-1B750B9FE61A}" name="表1" displayName="表1" ref="A1:G66" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G66" xr:uid="{DE3B2652-2809-46B5-B181-A6BC841FDA9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{675BD21A-41CE-4AF8-9BB0-1B750B9FE61A}" name="表1" displayName="表1" ref="A1:G65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G65" xr:uid="{DE3B2652-2809-46B5-B181-A6BC841FDA9A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5D71E0CB-98EB-4EF7-BE60-0D8CA84FA292}" name="日期" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{44DAEC7A-13A1-48A5-8C4E-08EDED641A4D}" name="沟通" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{52A2A1B7-5075-4741-8032-3F9275FDA4D9}" name="需求" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{52A2A1B7-5075-4741-8032-3F9275FDA4D9}" name="任务" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{78FEFE3E-DD35-45BE-AF1F-B216AC95E882}" name="是否完成" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{53C86C6E-E942-4EE5-B9F1-90F9EBCF5C7A}" name="问题" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{470E7BFC-68C4-4928-AFFD-58BD6169DB5E}" name="是否解决" dataDxfId="3"/>
@@ -487,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A17A98-5260-4EE8-9F37-693CF162AE7C}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,6 +603,7 @@
     <col min="5" max="5" width="28.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -509,359 +611,457 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>43210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43213</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43214</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43215</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>43216</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>43217</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>43218</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43219</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>43222</v>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43223</v>
+        <v>43220</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43224</v>
+        <v>43221</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43225</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43226</v>
+        <v>43223</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43227</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>43228</v>
+      <c r="A17" s="4">
+        <v>43225</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43229</v>
+      <c r="A18" s="4">
+        <v>43226</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>43230</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43231</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>43232</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43233</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>43234</v>
+      <c r="A23" s="4">
+        <v>43231</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43235</v>
+      <c r="A24" s="4">
+        <v>43232</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43236</v>
+        <v>43233</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43237</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43238</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43239</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43240</v>
+        <v>43237</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>43241</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>43242</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>43243</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>43244</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>43245</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>43246</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>43247</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>43248</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>43249</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>43250</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>43251</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43252</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>43253</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>43254</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>43255</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>43256</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>43257</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="50" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>43258</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43259</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43259</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>43260</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>43261</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>43262</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>43263</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>43264</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>43265</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>43266</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>43267</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>43268</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>43269</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43270</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>43271</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>43272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>43274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>43275</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>43276</v>
+        <v>43273</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>43277</v>
-      </c>
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cg/沟通及工作日志表.xlsx
+++ b/cg/沟通及工作日志表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46035\Desktop\zhonghua-backend\cg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DBECA8E8-690B-4D27-A09A-44D894F225A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A65239-99B1-4996-B2E6-F6015042C43C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{7A4C70EC-1B96-4681-BE83-B07FC6131489}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,15 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、在现有设备上测试很OK
-2、李博正在准备sp的数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周一绘制sp数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,17 +60,6 @@
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、绘制cg数据样式
-2、希望DOM能悬浮透明展示在Canvas的上方
-3、明天绘制sp表单
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制cg数据样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,11 +131,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用jCanvas绘制一个完整Topo图的Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程结构优化以及Canvas元素可复用性探讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、确定了数据的来源以及具体结构
+2、分析数据源结构
+3、确定Canvas绘图的布局以及细节实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jCanvas绘制一个Topo图的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用现有数据源绘制一个Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决昨天Topo图中的一些bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、误用ES6语法
+2、缺少云彩的图片
+3、磁盘多一块的时候，排序的结果是反的
+4、MB转GB的时候需要四舍五入，不要用向下取整
+5、内存状态的颜色应由内存的状态决定，而不是服务器的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、移动端树形结构展示服务器列表状态
+2、决定采用Bootkit中的树形结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树形列表结构展示服务器状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍树形列表的结构以及实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成新设计的服务器Topo图
+2、Topo图细节实现讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新设计的服务器Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、继续完成Topo图
+2、Topo图细节实现讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存和磁盘都是有数据的，应该把具体数值写进去，而不是显示问号/问号GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绘制通用系统Topo图（SP）
+2、通用标准：大部分元素具有不确定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成绘制通用的系统Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、理解对于通用的意义
+2、完成绘制通用的系统Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用Topo图的细节实现以及答疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、页面初始化需load效果，并对load效果封装。
+2、页面需要设置定时刷新
+3、页面设置成四分屏或九分屏，每个分屏都需要load和定时刷新。点击一个屏，分屏是canvas的则通过imageviewer控件全屏展示，否则弹全屏模态对话框展示html。
+4、对ITSM实现的细节讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ITSM的结构设计以及对其进行实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、通用Topo图（SP）的验收
+2、下周绘制ITSM的Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topo图（SP）还未完成，需等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP图中有一下不符：
+1、比例不对
+2、余白太多
+3、图未居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复SP图中的bug
+2、完成loading效果、定时刷新以及四分屏和九分屏布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制出的Canvas图在实际设备上显示不清，暂时无法解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面刷新倒计时提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、设计页面刷新倒计时提醒
+2、技术交流
+3、特定页面技术实现的可行性讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改SP图中的固定布局为自适应布局
+2、四分屏和九分平优化实现以及布局完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化四分屏和九分屏的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改四分屏和九分屏中iframe基于Barba的实现改为ImageViewer实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、由于分辨率问题，需要重新绘制之前实现的Topo图
+2、安装Visio
+3、重新调整了工程结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助实现重绘前的前期实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待后台出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据已经准备好
+2、绘制新的ITSM Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制新的ITSM Topo图</t>
+  </si>
+  <si>
+    <t>解决前天Topo图中的一些bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、缺少变量名
+2、磁盘状态的决定变量设置错误
+3、由于浏览器兼容性问题，绘制图层需要使用img标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据已经准备好
+2、绘制新的EX Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制新的EX Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITSM数据源编码问题导致布局错乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在现有设备上测试很OK
+2、正在准备SP Topo的数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制新的S4B Topo图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、绘制新的S4B Topo图
+2、希望DOM能悬浮透明展示在Canvas的上方
+3、明天绘制SP表单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,13 +447,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="m/d;@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -276,16 +470,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{675BD21A-41CE-4AF8-9BB0-1B750B9FE61A}" name="表1" displayName="表1" ref="A1:G65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{675BD21A-41CE-4AF8-9BB0-1B750B9FE61A}" name="表1" displayName="表1" ref="A1:G65" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G65" xr:uid="{DE3B2652-2809-46B5-B181-A6BC841FDA9A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5D71E0CB-98EB-4EF7-BE60-0D8CA84FA292}" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{44DAEC7A-13A1-48A5-8C4E-08EDED641A4D}" name="沟通" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{52A2A1B7-5075-4741-8032-3F9275FDA4D9}" name="任务" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{78FEFE3E-DD35-45BE-AF1F-B216AC95E882}" name="是否完成" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{53C86C6E-E942-4EE5-B9F1-90F9EBCF5C7A}" name="问题" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{470E7BFC-68C4-4928-AFFD-58BD6169DB5E}" name="是否解决" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B31411ED-0626-402F-AE0C-B6711CB4EAB6}" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5D71E0CB-98EB-4EF7-BE60-0D8CA84FA292}" name="日期" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{44DAEC7A-13A1-48A5-8C4E-08EDED641A4D}" name="沟通" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{52A2A1B7-5075-4741-8032-3F9275FDA4D9}" name="任务" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{78FEFE3E-DD35-45BE-AF1F-B216AC95E882}" name="是否完成" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{53C86C6E-E942-4EE5-B9F1-90F9EBCF5C7A}" name="问题" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{470E7BFC-68C4-4928-AFFD-58BD6169DB5E}" name="是否解决" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B31411ED-0626-402F-AE0C-B6711CB4EAB6}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -591,8 +785,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -634,34 +828,40 @@
         <v>43210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43211</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43212</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43213</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -669,19 +869,19 @@
         <v>43214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
@@ -689,19 +889,19 @@
         <v>43215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -709,13 +909,13 @@
         <v>43216</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -723,13 +923,13 @@
         <v>43217</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -737,13 +937,13 @@
         <v>43218</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,7 +951,7 @@
         <v>43219</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,7 +959,7 @@
         <v>43220</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,207 +967,474 @@
         <v>43221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43222</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43223</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43224</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43225</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43226</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43227</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43228</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43229</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43230</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>43231</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43232</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43233</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43234</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43235</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43236</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43237</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43238</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43239</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43240</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43241</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43242</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43243</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43244</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43245</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43246</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43247</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43248</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43249</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43250</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43251</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43252</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43253</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43254</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43255</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43256</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43257</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43258</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -975,21 +1442,24 @@
         <v>43259</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43260</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43261</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
@@ -1020,10 +1490,16 @@
       <c r="A59" s="4">
         <v>43267</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43268</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">

--- a/cg/沟通及工作日志表.xlsx
+++ b/cg/沟通及工作日志表.xlsx
@@ -1,172 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46035\Desktop\zhonghua-backend\cg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10A65239-99B1-4996-B2E6-F6015042C43C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{7A4C70EC-1B96-4681-BE83-B07FC6131489}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>是否完成</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>是否解决</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据展示的格式有个体差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、介绍前端UI框架Bootkit
 2、前后端交互采用面向接口的形式
 3、采用jCanvas绘制Topo图
 4、利用Bootkit框架搭建两套不同结构的UI Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前期沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末休息</t>
   </si>
   <si>
     <t>1、搭建基于Bootkit的两套不同结构的UI Demo
 2、解决侧边栏与iframe双滚动条的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、基于iframe的Bootkit UI  Demo
 2、基于CSS3的Bootkit UI Deom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、完成Bootkit Demo的具体实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iframe产生了一些布局样式上的bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、实现了根据数据异步驱动加载菜单栏的效果
 2、完成了项目初期Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bootkit侧边栏样式被遮挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用jCanvas绘制一个服务器的Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>iframe产生了一些布局样式上的bug</t>
+  </si>
+  <si>
+    <t>已解决</t>
   </si>
   <si>
     <t>1、利用jCanvas绘制一个服务器的Demo
 2、将Demo中服务器元素进行有效封装
 3、Demo展示采用ImageViewer插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jCanvas绘制一个服务器的Demo</t>
+  </si>
+  <si>
+    <t>Bootkit侧边栏样式被遮挡</t>
+  </si>
+  <si>
+    <t>提供了假数据以及格式，需要绘制完整的Topo Demo</t>
+  </si>
+  <si>
+    <t>利用jCanvas绘制一个Topo图的Demo</t>
+  </si>
+  <si>
+    <t>绘制Demo</t>
+  </si>
+  <si>
+    <t>工程结构优化以及Canvas元素可复用性探讨</t>
   </si>
   <si>
     <t>五一假期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供了假数据以及格式，需要绘制完整的Topo Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程结构优化以及Canvas元素可复用性探讨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、确定了数据的来源以及具体结构
 2、分析数据源结构
 3、确定Canvas绘图的布局以及细节实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用jCanvas绘制一个Topo图的Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>利用现有数据源绘制一个Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解决昨天Topo图中的一些bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、误用ES6语法
@@ -174,205 +118,173 @@
 3、磁盘多一块的时候，排序的结果是反的
 4、MB转GB的时候需要四舍五入，不要用向下取整
 5、内存状态的颜色应由内存的状态决定，而不是服务器的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、移动端树形结构展示服务器列表状态
 2、决定采用Bootkit中的树形结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树形列表结构展示服务器状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>介绍树形列表的结构以及实现原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、完成新设计的服务器Topo图
 2、Topo图细节实现讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成新设计的服务器Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、继续完成Topo图
 2、Topo图细节实现讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存和磁盘都是有数据的，应该把具体数值写进去，而不是显示问号/问号GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、绘制通用系统Topo图（SP）
 2、通用标准：大部分元素具有不确定性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成绘制通用的系统Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、理解对于通用的意义
 2、完成绘制通用的系统Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>完成绘制通用的系统Topo图</t>
+  </si>
+  <si>
+    <t>Topo图（SP）还未完成，需等待</t>
   </si>
   <si>
     <t>通用Topo图的细节实现以及答疑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、通用Topo图（SP）的验收
+2、下周绘制ITSM的Topo图</t>
   </si>
   <si>
     <t>1、页面初始化需load效果，并对load效果封装。
 2、页面需要设置定时刷新
 3、页面设置成四分屏或九分屏，每个分屏都需要load和定时刷新。点击一个屏，分屏是canvas的则通过imageviewer控件全屏展示，否则弹全屏模态对话框展示html。
 4、对ITSM实现的细节讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成ITSM的结构设计以及对其进行实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、通用Topo图（SP）的验收
-2、下周绘制ITSM的Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topo图（SP）还未完成，需等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SP图中有一下不符：
 1、比例不对
 2、余白太多
 3、图未居中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部分解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制出的Canvas图在实际设备上显示不清，暂时无法解决</t>
   </si>
   <si>
     <t>1、修复SP图中的bug
 2、完成loading效果、定时刷新以及四分屏和九分屏布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制出的Canvas图在实际设备上显示不清，暂时无法解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成页面刷新倒计时提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、设计页面刷新倒计时提醒
 2、技术交流
 3、特定页面技术实现的可行性讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面刷新倒计时提醒</t>
+  </si>
+  <si>
+    <t>优化四分屏和九分屏的实现</t>
   </si>
   <si>
     <t>1、修改SP图中的固定布局为自适应布局
 2、四分屏和九分平优化实现以及布局完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化四分屏和九分屏的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改四分屏和九分屏中iframe基于Barba的实现改为ImageViewer实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、由于分辨率问题，需要重新绘制之前实现的Topo图
 2、安装Visio
 3、重新调整了工程结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>协助实现重绘前的前期实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等待后台出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、数据已经准备好
 2、绘制新的ITSM Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绘制新的ITSM Topo图</t>
   </si>
   <si>
     <t>解决前天Topo图中的一些bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、缺少变量名
 2、磁盘状态的决定变量设置错误
 3、由于浏览器兼容性问题，绘制图层需要使用img标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、数据已经准备好
 2、绘制新的EX Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绘制新的EX Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITSM数据源编码问题导致布局错乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在现有设备上测试很OK
-2、正在准备SP Topo的数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制新的S4B Topo图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、绘制新的S4B Topo图
 2、希望DOM能悬浮透明展示在Canvas的上方
 3、明天绘制SP表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制新的S4B Topo图</t>
+  </si>
+  <si>
+    <t>数据展示的格式有个体差异</t>
+  </si>
+  <si>
+    <t>1、在现有设备上测试很OK
+2、正在准备SP Topo的数据格式</t>
+  </si>
+  <si>
+    <t>1、新的SP Topo图已经完成
+2、用新的列表形式代替原来的nestable,并适应PC端以及移动端</t>
+  </si>
+  <si>
+    <t>用新的列表形式代替原来的nestable,并适应PC端以及移动端</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -380,20 +292,356 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -401,9 +649,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -420,66 +910,81 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m/d;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{675BD21A-41CE-4AF8-9BB0-1B750B9FE61A}" name="表1" displayName="表1" ref="A1:G65" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G65" xr:uid="{DE3B2652-2809-46B5-B181-A6BC841FDA9A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G65" totalsRowShown="0">
+  <autoFilter ref="A1:G65"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5D71E0CB-98EB-4EF7-BE60-0D8CA84FA292}" name="日期" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{44DAEC7A-13A1-48A5-8C4E-08EDED641A4D}" name="沟通" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{52A2A1B7-5075-4741-8032-3F9275FDA4D9}" name="任务" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{78FEFE3E-DD35-45BE-AF1F-B216AC95E882}" name="是否完成" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{53C86C6E-E942-4EE5-B9F1-90F9EBCF5C7A}" name="问题" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{470E7BFC-68C4-4928-AFFD-58BD6169DB5E}" name="是否解决" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{B31411ED-0626-402F-AE0C-B6711CB4EAB6}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="日期"/>
+    <tableColumn id="2" name="沟通"/>
+    <tableColumn id="3" name="任务"/>
+    <tableColumn id="4" name="是否完成"/>
+    <tableColumn id="5" name="问题"/>
+    <tableColumn id="6" name="是否解决"/>
+    <tableColumn id="7" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -528,7 +1033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -561,26 +1066,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -613,23 +1101,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,220 +1242,216 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A17A98-5260-4EE8-9F37-693CF162AE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="3" width="28.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88333333333333" style="1"/>
+    <col min="2" max="3" width="28.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.775" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:7">
       <c r="A2" s="3">
         <v>43210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>43211</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>43212</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:4">
       <c r="A5" s="3">
         <v>43213</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
       <c r="A6" s="3">
         <v>43214</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:6">
       <c r="A7" s="3">
         <v>43215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:4">
       <c r="A8" s="3">
         <v>43216</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:4">
       <c r="A9" s="3">
         <v>43217</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
       <c r="A10" s="4">
         <v>43218</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>43219</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>43220</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>43221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
       <c r="A14" s="3">
         <v>43222</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
       <c r="A15" s="3">
         <v>43223</v>
       </c>
@@ -992,559 +1459,565 @@
         <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="108" spans="1:6">
       <c r="A16" s="3">
         <v>43224</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>43225</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>43226</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:4">
       <c r="A19" s="3">
         <v>43227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>43228</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:4">
       <c r="A21" s="3">
         <v>43229</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:4">
       <c r="A22" s="3">
         <v>43230</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:5">
       <c r="A23" s="3">
         <v>43231</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>43232</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>43233</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:4">
       <c r="A26" s="3">
         <v>43234</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>43235</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>43236</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>43237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:4">
       <c r="A30" s="3">
         <v>43238</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>43239</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>43240</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="135" spans="1:6">
       <c r="A33" s="3">
         <v>43241</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" ht="54" spans="1:6">
       <c r="A34" s="3">
         <v>43242</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:4">
       <c r="A35" s="3">
         <v>43243</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:4">
       <c r="A36" s="3">
         <v>43244</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:4">
       <c r="A37" s="3">
         <v>43245</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4">
         <v>43246</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4">
         <v>43247</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="1:4">
       <c r="A40" s="3">
         <v>43248</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>43249</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>43250</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>43251</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:4">
       <c r="A44" s="3">
         <v>43252</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="4">
         <v>43253</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="54" spans="1:5">
       <c r="A46" s="4">
         <v>43254</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>43255</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:6">
       <c r="A48" s="3">
         <v>43256</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3">
         <v>43257</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" ht="54" spans="1:6">
       <c r="A50" s="3">
         <v>43258</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:2">
       <c r="A51" s="3">
         <v>43259</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="4">
         <v>43260</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="4">
         <v>43261</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="40.5" spans="1:3">
       <c r="A54" s="3">
         <v>43262</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="3">
         <v>43263</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="3">
         <v>43264</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="3">
         <v>43265</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="3">
         <v>43266</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="4">
         <v>43267</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="4">
         <v>43268</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="3">
         <v>43269</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="3">
         <v>43270</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="3">
         <v>43271</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="3">
         <v>43272</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="3">
         <v>43273</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/cg/沟通及工作日志表.xlsx
+++ b/cg/沟通及工作日志表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>日期</t>
   </si>
@@ -267,6 +267,23 @@
   </si>
   <si>
     <t>用新的列表形式代替原来的nestable,并适应PC端以及移动端</t>
+  </si>
+  <si>
+    <t>1、新的nestable命名为DOM List
+2、DL分为移动端和PC端两个部分，采用两个不同的DOM结构
+3、确定DL PC端采用的是Bootkit的Datastable表格
+4、确定DL移动端采用树形结构，并对比DL移动端采用的结构进行研究</t>
+  </si>
+  <si>
+    <t>完成DL PC端的列表页面</t>
+  </si>
+  <si>
+    <t>1、完成DL PC端的页面
+2、帮助获取IOS7样式的Switch
+3、确定DL移动端页面采用的结构</t>
+  </si>
+  <si>
+    <t>完成DL移动端的列表页面</t>
   </si>
 </sst>
 </file>
@@ -274,13 +291,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +315,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,15 +367,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,29 +389,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,43 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -456,6 +466,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,25 +514,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,12 +604,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -547,72 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +680,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,177 +757,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1261,9 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1939,19 +1949,46 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" ht="121.5" spans="1:4">
       <c r="A55" s="3">
         <v>43263</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:4">
       <c r="A56" s="3">
         <v>43264</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>43265</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:1">
